--- a/TACTS_v3/myLearningData/myDataDescription_231008_0119_2line.xlsx
+++ b/TACTS_v3/myLearningData/myDataDescription_231008_0119_2line.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ME program\2017-PhD\01_research\02Study\34_ballon_like_cover\DeepLearing\TACTS\TACTS_v3\myLearningData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18BD791-51C1-406F-88F5-53D53C85C23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A3E50F-FC91-4B6C-909E-083A4BE46BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40140" yWindow="195" windowWidth="15450" windowHeight="15645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="285" yWindow="60" windowWidth="28755" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="101">
   <si>
     <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,50 @@
   </si>
   <si>
     <t>1024/1024/1024/1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activation function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReLU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64/64/64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32/32/32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReLU/ReLU/ReLU/tanh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaky RELU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1851,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2346DC-7C68-44AD-B87D-74D62FE6683F}">
-  <dimension ref="A2:Q30"/>
+  <dimension ref="A2:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1863,9 +1907,11 @@
     <col min="8" max="8" width="25.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1876,11 +1922,11 @@
       <c r="K2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1911,14 +1957,20 @@
         <v>86</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1954,25 +2006,31 @@
       <c r="K4" s="9">
         <v>0.2233</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O4" s="2">
         <v>-1</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>1</v>
       </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O14" si="0">F4/I4*1000</f>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q14" si="0">F4/I4*1000</f>
         <v>-1.3145145343088775</v>
       </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P11" si="1">F4*F4/K4</f>
+      <c r="R4">
+        <f t="shared" ref="R4:R11" si="1">F4*F4/K4</f>
         <v>3166.2700403045169</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1989,11 +2047,11 @@
         <v>87.82</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F20" si="2">SUM(B5:E5)-360</f>
+        <f t="shared" ref="F5:F27" si="2">SUM(B5:E5)-360</f>
         <v>-11.79000000000002</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G20" si="3">B5/(100-B5) + C5/(100-C5)  +D5/(100-D5) +E5/(100-E5)</f>
+        <f t="shared" ref="G5:G27" si="3">B5/(100-B5) + C5/(100-C5)  +D5/(100-D5) +E5/(100-E5)</f>
         <v>27.347456970059255</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2008,19 +2066,25 @@
       <c r="K5" s="9">
         <v>0.37640000000000001</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="1"/>
-      <c r="O5">
+      <c r="L5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="1"/>
+      <c r="Q5">
         <f t="shared" si="0"/>
         <v>-0.32090364725095316</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <f t="shared" si="1"/>
         <v>369.29888416578234</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -2056,19 +2120,25 @@
       <c r="K6" s="9">
         <v>0.53090000000000004</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="1"/>
-      <c r="O6">
+      <c r="L6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="1"/>
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>-0.12900923908961173</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <f t="shared" si="1"/>
         <v>88.899792804671421</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -2104,19 +2174,25 @@
       <c r="K7" s="9">
         <v>0.6835</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="1"/>
-      <c r="O7">
+      <c r="L7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="1"/>
+      <c r="Q7">
         <f t="shared" si="0"/>
         <v>-0.1496688361957737</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <f t="shared" si="1"/>
         <v>159.46393562545714</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -2152,19 +2228,25 @@
       <c r="K8" s="9">
         <v>0.83540000000000003</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="1"/>
-      <c r="O8">
+      <c r="L8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="1"/>
+      <c r="Q8">
         <f t="shared" si="0"/>
         <v>-0.18985581158143625</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <f t="shared" si="1"/>
         <v>321.1687814220731</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2200,19 +2282,25 @@
       <c r="K9" s="9">
         <v>1.7969999999999999</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="1"/>
-      <c r="O9">
+      <c r="L9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="1"/>
+      <c r="Q9">
         <f t="shared" si="0"/>
         <v>4.780180074607928E-2</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <f t="shared" si="1"/>
         <v>53.335614913745353</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -2248,19 +2336,25 @@
       <c r="K10" s="9">
         <v>6.6890000000000001</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="1"/>
-      <c r="O10">
+      <c r="L10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="1"/>
+      <c r="Q10">
         <f t="shared" si="0"/>
         <v>2.7291298173936832E-2</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <f t="shared" si="1"/>
         <v>71.766796232620507</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -2296,19 +2390,25 @@
       <c r="K11" s="9">
         <v>0.80379999999999996</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="1"/>
-      <c r="O11">
+      <c r="L11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="1"/>
+      <c r="Q11">
         <f t="shared" si="0"/>
         <v>9.3100978753879349E-2</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <f t="shared" si="1"/>
         <v>75.690470266235607</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2344,19 +2444,25 @@
       <c r="K12" s="9">
         <v>5.6070000000000002</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="1"/>
-      <c r="O12">
+      <c r="L12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="1"/>
+      <c r="Q12">
         <f t="shared" si="0"/>
         <v>3.2589176515508606E-2</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <f>F12*F12/K12</f>
         <v>85.147583377920625</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -2388,20 +2494,26 @@
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="1"/>
-      <c r="O13">
+      <c r="L13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="1"/>
+      <c r="Q13">
         <f t="shared" si="0"/>
         <v>4.1490359034129849E-2</v>
       </c>
-      <c r="P13" t="e">
-        <f t="shared" ref="P13:P20" si="4">F13*F13/K13</f>
+      <c r="R13" t="e">
+        <f t="shared" ref="R13:R27" si="4">F13*F13/K13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -2433,19 +2545,25 @@
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="1"/>
-      <c r="O14">
+      <c r="L14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="1"/>
+      <c r="Q14">
         <f t="shared" si="0"/>
         <v>4.2819975428199632E-2</v>
       </c>
-      <c r="P14" t="e">
+      <c r="R14" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -2477,19 +2595,25 @@
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="1"/>
-      <c r="O15">
-        <f t="shared" ref="O15:O20" si="5">F15/I15*1000</f>
+      <c r="L15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="1"/>
+      <c r="Q15">
+        <f t="shared" ref="Q15:Q21" si="5">F15/I15*1000</f>
         <v>5.327406547014079E-2</v>
       </c>
-      <c r="P15" t="e">
+      <c r="R15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -2525,19 +2649,25 @@
       <c r="K16" s="9">
         <v>2.6819999999999999</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="1"/>
-      <c r="O16">
+      <c r="L16" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="1"/>
+      <c r="Q16">
         <f t="shared" si="5"/>
         <v>6.5652301827903256E-2</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <f t="shared" si="4"/>
         <v>157.15171513795633</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -2573,19 +2703,25 @@
       <c r="K17" s="9">
         <v>2.0019999999999998</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="1"/>
-      <c r="O17">
+      <c r="L17" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
+      <c r="Q17">
         <f t="shared" si="5"/>
         <v>8.5700123484703711E-2</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <f t="shared" si="4"/>
         <v>194.04800199800275</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2617,19 +2753,25 @@
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="1"/>
-      <c r="O18">
+      <c r="L18" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="1"/>
+      <c r="Q18">
         <f t="shared" si="5"/>
         <v>9.2875141595579538E-2</v>
       </c>
-      <c r="P18" t="e">
+      <c r="R18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -2661,20 +2803,26 @@
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="1"/>
-      <c r="O19">
+      <c r="L19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
+      <c r="Q19">
         <f t="shared" si="5"/>
         <v>9.2125821762330112E-2</v>
       </c>
-      <c r="P19" t="e">
+      <c r="R19" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -2706,165 +2854,382 @@
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="1"/>
-      <c r="O20">
+      <c r="L20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="1"/>
+      <c r="Q20">
         <f t="shared" si="5"/>
         <v>9.013685700802276E-3</v>
       </c>
-      <c r="P20" t="e">
+      <c r="R20" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="B21" s="2">
+        <v>83.15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>85.08</v>
+      </c>
+      <c r="D21" s="2">
+        <v>86.21</v>
+      </c>
+      <c r="E21" s="2">
+        <v>84.22</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>-21.340000000000032</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="3"/>
+        <v>22.225898201338921</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="6">
+        <v>83780</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>-0.25471472905228015</v>
+      </c>
+      <c r="R21" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="B22" s="2">
+        <v>66.790000000000006</v>
+      </c>
+      <c r="C22" s="2">
+        <v>77.72</v>
+      </c>
+      <c r="D22" s="2">
+        <v>71.72</v>
+      </c>
+      <c r="E22" s="2">
+        <v>74.59</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>-69.180000000000007</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="3"/>
+        <v>10.970997937053006</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L22" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="1"/>
+      <c r="R22" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="B23" s="2">
+        <v>80.62</v>
+      </c>
+      <c r="C23" s="2">
+        <v>84.73</v>
+      </c>
+      <c r="D23" s="2">
+        <v>82.57</v>
+      </c>
+      <c r="E23" s="2">
+        <v>81.34</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>-30.740000000000009</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="3"/>
+        <v>18.805038653361972</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="1"/>
+      <c r="R23" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="B24" s="2">
+        <v>80.22</v>
+      </c>
+      <c r="C24" s="2">
+        <v>84.94</v>
+      </c>
+      <c r="D24" s="2">
+        <v>97.95</v>
+      </c>
+      <c r="E24" s="2">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>-16.879999999999995</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>61.478707026222509</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="I24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="1"/>
+      <c r="R24" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="B25" s="2">
+        <v>76.680000000000007</v>
+      </c>
+      <c r="C25" s="2">
+        <v>83.23</v>
+      </c>
+      <c r="D25" s="2">
+        <v>76.03</v>
+      </c>
+      <c r="E25" s="2">
+        <v>76.09</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>-47.96999999999997</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>14.605425883901511</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="I25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1">
-        <v>512</v>
-      </c>
-      <c r="D28" s="1">
-        <v>128</v>
-      </c>
-      <c r="E28" s="1">
-        <v>32</v>
-      </c>
-      <c r="F28" s="2">
-        <v>32</v>
-      </c>
-      <c r="G28" s="2">
-        <v>4</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1">
-        <f>B28*C28+C28</f>
-        <v>12800</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" ref="D29:I29" si="6">C28*D28+D28</f>
-        <v>65664</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="6"/>
-        <v>4128</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="6"/>
-        <v>1056</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="6"/>
-        <v>132</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="2">
-        <f>SUM(C29:L29)</f>
-        <v>83780</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="1"/>
+      <c r="R25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="4">
+        <v>81.98</v>
+      </c>
+      <c r="C26" s="4">
+        <v>88.44</v>
+      </c>
+      <c r="D26" s="4">
+        <v>87.95</v>
+      </c>
+      <c r="E26" s="4">
+        <v>88.07</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>-13.560000000000002</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="3"/>
+        <v>26.880893458104516</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="5">
+        <v>87.97</v>
+      </c>
+      <c r="C27" s="4">
+        <v>91.72</v>
+      </c>
+      <c r="D27" s="4">
+        <v>92.33</v>
+      </c>
+      <c r="E27" s="4">
+        <v>91.72</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7400000000000091</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="3"/>
+        <v>41.504950973409521</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R27" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="2"/>
     </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1">
+        <v>512</v>
+      </c>
+      <c r="D42" s="1">
+        <v>128</v>
+      </c>
+      <c r="E42" s="1">
+        <v>32</v>
+      </c>
+      <c r="F42" s="2">
+        <v>32</v>
+      </c>
+      <c r="G42" s="2">
+        <v>4</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1">
+        <f>B42*C42+C42</f>
+        <v>12800</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" ref="D43:I43" si="6">C42*D42+D42</f>
+        <v>65664</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="6"/>
+        <v>4128</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="6"/>
+        <v>1056</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="2">
+        <f>SUM(C43:N43)</f>
+        <v>83780</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2875,7 +3240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A572E05A-071D-4F32-B411-5CE313D9EA21}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -3693,4 +4058,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3B9706-5218-4132-96CD-90A13CE6446A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>